--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/15/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.778</v>
+        <v>-20.564</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.164</v>
+        <v>-22.255</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.672</v>
+        <v>-19.749</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.736</v>
+        <v>-12.489</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -638,13 +638,13 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.572</v>
+        <v>-10.957</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.694</v>
+        <v>17.132</v>
       </c>
     </row>
     <row r="13">
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.766</v>
+        <v>-8.030000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.616</v>
+        <v>-7.787000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.67</v>
+        <v>-13.286</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.65</v>
+        <v>-21.765</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.268000000000001</v>
+        <v>-8.428000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.430000000000001</v>
+        <v>-8.266</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-18.81</v>
+        <v>-19.765</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.01</v>
+        <v>-12.366</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.23</v>
+        <v>-12.293</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,13 +808,13 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.438</v>
+        <v>-12.517</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.488</v>
+        <v>-7.702</v>
       </c>
       <c r="E22" t="n">
-        <v>16.766</v>
+        <v>16.918</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.21</v>
+        <v>-12.223</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.856</v>
+        <v>-21.914</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,19 +921,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.958</v>
+        <v>-21.398</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.868</v>
+        <v>-12.487</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.952</v>
+        <v>17.073</v>
       </c>
     </row>
     <row r="30">
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.568</v>
+        <v>-21.736</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,13 +1012,13 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.506</v>
+        <v>-11.818</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.192</v>
+        <v>16.994</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.684000000000001</v>
+        <v>-8.189</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.172</v>
+        <v>-20.097</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.794</v>
+        <v>-12.287</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,13 +1165,13 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.53</v>
+        <v>-12.863</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.106</v>
+        <v>16.966</v>
       </c>
     </row>
     <row r="44">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.75</v>
+        <v>-13.216</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.762</v>
+        <v>-13.054</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.988</v>
+        <v>-21.789</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.93</v>
+        <v>-13.167</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.936000000000002</v>
+        <v>-8.303000000000001</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.122</v>
+        <v>16.938</v>
       </c>
     </row>
     <row r="49">
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.968</v>
+        <v>-13.625</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.280000000000001</v>
+        <v>-8.097</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.502</v>
+        <v>-21.684</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-10.538</v>
+        <v>-11.479</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-21.84</v>
+        <v>-21.96700000000001</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.116</v>
+        <v>-22.247</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.876</v>
+        <v>-22.29</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>16.212</v>
+        <v>16.411</v>
       </c>
     </row>
     <row r="61">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.194</v>
+        <v>-22.158</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.814</v>
+        <v>-21.684</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.268</v>
+        <v>-11.405</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.196</v>
+        <v>-11.718</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.382</v>
+        <v>17.073</v>
       </c>
     </row>
     <row r="69">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.296</v>
+        <v>17.469</v>
       </c>
     </row>
     <row r="71">
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.29</v>
+        <v>-20.726</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1681,12 +1681,12 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.614</v>
+        <v>16.685</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.322</v>
+        <v>-21.112</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.288</v>
+        <v>-11.889</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-14.502</v>
+        <v>-14.098</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.674</v>
+        <v>16.543</v>
       </c>
     </row>
     <row r="88">
@@ -1992,19 +1992,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.726</v>
+        <v>-21.766</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.84</v>
+        <v>-11.558</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.24</v>
+        <v>17.517</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.82</v>
+        <v>-7.536000000000001</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.914</v>
+        <v>-12.531</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.958</v>
+        <v>-8.344999999999999</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.028</v>
+        <v>-22.122</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.848</v>
+        <v>16.603</v>
       </c>
     </row>
     <row r="102">
